--- a/biology/Botanique/Pin_rigide/Pin_rigide.xlsx
+++ b/biology/Botanique/Pin_rigide/Pin_rigide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus rigida
 Le pin rigide (Pinus rigida) est un arbre appartenant au genre Pinus et à la famille des Pinacées.  Il est natif du nord-est des États-Unis, entre l'état du Maine et celui de la Géorgie, pouvant aller jusqu'au Kentucky. Au nord, il se trouve en Ontario et au Québec, dans la vallée du Saint-Laurent. Sa taille varie entre 6 et 30 m de hauteur.  
@@ -513,7 +525,9 @@
           <t>Terme commercial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre appelé en anglais pitch pine est issu d'une seule espèce (Pinus rigida Mill.) et ne doit pas être confondu avec le terme générique désignant le bois de pitchpin provenant de diverses espèces de pins durs et lourds et très résinifères. Les « pitchpins » forment au moins deux groupes distincts. Le groupe des véritables « pitchpins », c'est-à-dire les pitchpins historiques (qui sont entrés dans la composition des villas balnéaires et urbaines du début du XXe siècle) étaient originaires du Sud-est des États-Unis et appartenaient principalement à quatre espèces :
 Pinus palustris ou pin des marais (« Longleaf pine ») ;
@@ -550,7 +564,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre de pin grandit rapidement quand il est jeune, gagnant environ 30 cm de hauteur par an dans des conditions optimales, jusqu'à l'âge de 50 à 60 ans. À 90 ans, le gain annuel de croissance est négligeable. 
 L'arbre commence à porter des cônes dès l'âge de trois ans. Les cônes prennent deux ans pour arriver à maturité. La dispersion des semences se produit à l'automne et en hiver. Cet arbre ne peut pas se polliniser tout seul. 
@@ -583,10 +599,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme ce bois a la réputation d'être imputrescible, il entrait dans la composition des villas balnéaires et de tours de radio.
-Les Iroquois et les Cherokees utilisaient un cataplasme de pitch pin pour traiter les rhumatismes, les brûlures et les abcès. Ils s'en servaient aussi comme laxatif[1].
+Les Iroquois et les Cherokees utilisaient un cataplasme de pitch pin pour traiter les rhumatismes, les brûlures et les abcès. Ils s'en servaient aussi comme laxatif.
 L'écorce était utilisée par les Cherokees pour la construction de canoës.
 </t>
         </is>
